--- a/BackTest/2019-11-02 BackTest ETZ.xlsx
+++ b/BackTest/2019-11-02 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -441,33 +436,30 @@
         <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="D2" t="n">
         <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="F2" t="n">
-        <v>33677.5058</v>
+        <v>107828.5602</v>
       </c>
       <c r="G2" t="n">
-        <v>33.12000000000005</v>
+        <v>143637.9292544477</v>
       </c>
       <c r="H2" t="n">
-        <v>33.13833333333335</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,42 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.1</v>
+        <v>32.8</v>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="D3" t="n">
-        <v>33.1</v>
+        <v>32.8</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="F3" t="n">
-        <v>20000</v>
+        <v>256187.8648</v>
       </c>
       <c r="G3" t="n">
-        <v>33.12000000000005</v>
+        <v>143637.9292544477</v>
       </c>
       <c r="H3" t="n">
-        <v>33.13666666666668</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,42 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.1</v>
+        <v>32.7</v>
       </c>
       <c r="C4" t="n">
-        <v>33.1</v>
+        <v>32.7</v>
       </c>
       <c r="D4" t="n">
-        <v>33.1</v>
+        <v>32.7</v>
       </c>
       <c r="E4" t="n">
-        <v>33.1</v>
+        <v>32.7</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>26844.1286</v>
       </c>
       <c r="G4" t="n">
-        <v>33.12666666666673</v>
+        <v>143637.9292544477</v>
       </c>
       <c r="H4" t="n">
-        <v>33.13500000000001</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G5" t="n">
-        <v>33.14000000000006</v>
+        <v>148637.9292544477</v>
       </c>
       <c r="H5" t="n">
-        <v>33.13500000000001</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>33.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,42 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
-        <v>316.0386</v>
+        <v>1007</v>
       </c>
       <c r="G6" t="n">
-        <v>33.14000000000006</v>
+        <v>148637.9292544477</v>
       </c>
       <c r="H6" t="n">
-        <v>33.13166666666668</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>13814.3484</v>
+        <v>3003</v>
       </c>
       <c r="G7" t="n">
-        <v>33.14000000000006</v>
+        <v>148637.9292544477</v>
       </c>
       <c r="H7" t="n">
-        <v>33.12833333333334</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>33.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -696,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>31954.7791</v>
+        <v>1304.0606</v>
       </c>
       <c r="G8" t="n">
-        <v>33.12000000000007</v>
+        <v>148637.9292544477</v>
       </c>
       <c r="H8" t="n">
-        <v>33.12500000000001</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>33.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,40 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>4570.0604</v>
+        <v>1698.9394</v>
       </c>
       <c r="G9" t="n">
-        <v>33.10000000000007</v>
+        <v>148637.9292544477</v>
       </c>
       <c r="H9" t="n">
-        <v>33.12000000000001</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -794,28 +725,21 @@
         <v>33</v>
       </c>
       <c r="F10" t="n">
-        <v>41622.2966</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>33.10000000000007</v>
+        <v>148637.9292544477</v>
       </c>
       <c r="H10" t="n">
-        <v>33.11166666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,40 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F11" t="n">
-        <v>3527.3135</v>
+        <v>2451.2727</v>
       </c>
       <c r="G11" t="n">
-        <v>33.10666666666673</v>
+        <v>148637.9292544477</v>
       </c>
       <c r="H11" t="n">
-        <v>33.105</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -866,40 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="C12" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="F12" t="n">
-        <v>4518.0722</v>
+        <v>13831.4558</v>
       </c>
       <c r="G12" t="n">
-        <v>33.12000000000008</v>
+        <v>148637.9292544477</v>
       </c>
       <c r="H12" t="n">
-        <v>33.10000000000001</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -908,40 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D13" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="E13" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F13" t="n">
-        <v>44733</v>
+        <v>304.1145</v>
       </c>
       <c r="G13" t="n">
-        <v>33.0933333333334</v>
+        <v>148333.8147544477</v>
       </c>
       <c r="H13" t="n">
-        <v>33.09166666666668</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -950,40 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="C14" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="D14" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="E14" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="F14" t="n">
-        <v>15874.8751</v>
+        <v>44181.464</v>
       </c>
       <c r="G14" t="n">
-        <v>33.09333333333341</v>
+        <v>104152.3507544477</v>
       </c>
       <c r="H14" t="n">
-        <v>33.08833333333334</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -992,40 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D15" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="E15" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F15" t="n">
-        <v>180000</v>
+        <v>22.6139</v>
       </c>
       <c r="G15" t="n">
-        <v>33.08000000000008</v>
+        <v>104174.9646544477</v>
       </c>
       <c r="H15" t="n">
-        <v>33.08333333333334</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1034,40 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="C16" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="D16" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="E16" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="F16" t="n">
-        <v>17413.765</v>
+        <v>281.5006</v>
       </c>
       <c r="G16" t="n">
-        <v>33.09333333333341</v>
+        <v>104174.9646544477</v>
       </c>
       <c r="H16" t="n">
-        <v>33.08000000000001</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1076,40 +958,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="C17" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="F17" t="n">
-        <v>13642.1355</v>
+        <v>173.8114</v>
       </c>
       <c r="G17" t="n">
-        <v>33.10666666666675</v>
+        <v>104348.7760544477</v>
       </c>
       <c r="H17" t="n">
-        <v>33.07833333333334</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1118,40 +999,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="E18" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="F18" t="n">
-        <v>7918.4084</v>
+        <v>4545.4545</v>
       </c>
       <c r="G18" t="n">
-        <v>33.12666666666675</v>
+        <v>104348.7760544477</v>
       </c>
       <c r="H18" t="n">
-        <v>33.08000000000001</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,40 +1038,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
         <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E19" t="n">
         <v>33</v>
       </c>
       <c r="F19" t="n">
-        <v>16000</v>
+        <v>5139.7081</v>
       </c>
       <c r="G19" t="n">
-        <v>33.12000000000008</v>
+        <v>104348.7760544477</v>
       </c>
       <c r="H19" t="n">
-        <v>33.07333333333334</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1202,40 +1079,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="C20" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="D20" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="E20" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="F20" t="n">
-        <v>110726.8296</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>33.10000000000008</v>
+        <v>104359.7760544477</v>
       </c>
       <c r="H20" t="n">
-        <v>33.07333333333334</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1244,40 +1118,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="E21" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="F21" t="n">
-        <v>13893.3636</v>
+        <v>389</v>
       </c>
       <c r="G21" t="n">
-        <v>33.0933333333334</v>
+        <v>104359.7760544477</v>
       </c>
       <c r="H21" t="n">
-        <v>33.07833333333334</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1286,40 +1157,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="C22" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="D22" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="E22" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="F22" t="n">
-        <v>151.5151</v>
+        <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>33.08666666666674</v>
+        <v>104403.7760544477</v>
       </c>
       <c r="H22" t="n">
-        <v>33.08000000000001</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1328,40 +1196,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="C23" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="D23" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="E23" t="n">
         <v>33</v>
       </c>
       <c r="F23" t="n">
-        <v>31768.2543</v>
+        <v>79094.7876</v>
       </c>
       <c r="G23" t="n">
-        <v>33.08000000000007</v>
+        <v>104403.7760544477</v>
       </c>
       <c r="H23" t="n">
-        <v>33.07333333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1370,40 +1235,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="C24" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="D24" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="E24" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="F24" t="n">
-        <v>13814.3485</v>
+        <v>24248.2251</v>
       </c>
       <c r="G24" t="n">
-        <v>33.06000000000007</v>
+        <v>80155.55095444767</v>
       </c>
       <c r="H24" t="n">
-        <v>33.06333333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,40 +1274,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="C25" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="D25" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="E25" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>6100</v>
+        <v>31909.4242</v>
       </c>
       <c r="G25" t="n">
-        <v>33.0533333333334</v>
+        <v>80155.55095444767</v>
       </c>
       <c r="H25" t="n">
-        <v>33.055</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1466,28 +1325,25 @@
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>13944.995</v>
+        <v>22927.1383</v>
       </c>
       <c r="G26" t="n">
-        <v>33.04666666666673</v>
+        <v>80155.55095444767</v>
       </c>
       <c r="H26" t="n">
-        <v>33.04666666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1496,40 +1352,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="C27" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="D27" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="E27" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="F27" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>33.0333333333334</v>
+        <v>80166.55095444767</v>
       </c>
       <c r="H27" t="n">
-        <v>33.03833333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1538,40 +1391,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="C28" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="D28" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="F28" t="n">
-        <v>36519.16</v>
+        <v>260.7371</v>
       </c>
       <c r="G28" t="n">
-        <v>33.0333333333334</v>
+        <v>79905.81385444767</v>
       </c>
       <c r="H28" t="n">
-        <v>33.03333333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,36 +1436,31 @@
         <v>33.2</v>
       </c>
       <c r="D29" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="E29" t="n">
         <v>33.2</v>
       </c>
       <c r="F29" t="n">
-        <v>625.6077</v>
+        <v>784.2628999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>33.0333333333334</v>
+        <v>79905.81385444767</v>
       </c>
       <c r="H29" t="n">
-        <v>33.03833333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>33</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1624,40 +1469,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="C30" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="E30" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="F30" t="n">
-        <v>41583.7672</v>
+        <v>30812.3907</v>
       </c>
       <c r="G30" t="n">
-        <v>33.06000000000007</v>
+        <v>49093.42315444766</v>
       </c>
       <c r="H30" t="n">
-        <v>33.045</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1666,40 +1508,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="C31" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="D31" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="E31" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="F31" t="n">
-        <v>9249.582399999999</v>
+        <v>33677.5058</v>
       </c>
       <c r="G31" t="n">
-        <v>33.06666666666673</v>
+        <v>49093.42315444766</v>
       </c>
       <c r="H31" t="n">
-        <v>33.05</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,40 +1547,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="C32" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="D32" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="E32" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="F32" t="n">
-        <v>60750.4176</v>
+        <v>20000</v>
       </c>
       <c r="G32" t="n">
-        <v>33.0733333333334</v>
+        <v>49093.42315444766</v>
       </c>
       <c r="H32" t="n">
-        <v>33.05166666666666</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1750,40 +1586,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="C33" t="n">
-        <v>33.6</v>
+        <v>33.1</v>
       </c>
       <c r="D33" t="n">
-        <v>33.6</v>
+        <v>33.1</v>
       </c>
       <c r="E33" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="F33" t="n">
-        <v>157927.6465</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>33.0933333333334</v>
+        <v>49103.42315444766</v>
       </c>
       <c r="H33" t="n">
-        <v>33.06666666666666</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1792,40 +1625,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>33.7</v>
+        <v>33.2</v>
       </c>
       <c r="C34" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="D34" t="n">
-        <v>33.7</v>
+        <v>33.2</v>
       </c>
       <c r="E34" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="F34" t="n">
-        <v>44278.0763</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>33.12666666666674</v>
+        <v>49113.42315444766</v>
       </c>
       <c r="H34" t="n">
-        <v>33.08</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1834,40 +1664,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
       <c r="C35" t="n">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
       <c r="D35" t="n">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
       <c r="E35" t="n">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>316.0386</v>
       </c>
       <c r="G35" t="n">
-        <v>33.18000000000007</v>
+        <v>48797.38455444766</v>
       </c>
       <c r="H35" t="n">
-        <v>33.09666666666666</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,40 +1703,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>33.5</v>
+        <v>33.1</v>
       </c>
       <c r="C36" t="n">
-        <v>33.5</v>
+        <v>33.1</v>
       </c>
       <c r="D36" t="n">
-        <v>33.5</v>
+        <v>33.1</v>
       </c>
       <c r="E36" t="n">
-        <v>33.5</v>
+        <v>33.1</v>
       </c>
       <c r="F36" t="n">
-        <v>20522.553</v>
+        <v>13814.3484</v>
       </c>
       <c r="G36" t="n">
-        <v>33.2133333333334</v>
+        <v>48797.38455444766</v>
       </c>
       <c r="H36" t="n">
-        <v>33.105</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,40 +1742,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
       <c r="C37" t="n">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
       <c r="D37" t="n">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
       <c r="E37" t="n">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>31954.7791</v>
       </c>
       <c r="G37" t="n">
-        <v>33.26000000000008</v>
+        <v>48797.38455444766</v>
       </c>
       <c r="H37" t="n">
-        <v>33.11666666666666</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1960,40 +1781,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="C38" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="D38" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="E38" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="F38" t="n">
-        <v>44328.3705</v>
+        <v>4570.0604</v>
       </c>
       <c r="G38" t="n">
-        <v>33.28000000000007</v>
+        <v>48797.38455444766</v>
       </c>
       <c r="H38" t="n">
-        <v>33.12166666666666</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2002,40 +1820,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="C39" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="D39" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="E39" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="F39" t="n">
-        <v>4239.0795</v>
+        <v>41622.2966</v>
       </c>
       <c r="G39" t="n">
-        <v>33.30666666666674</v>
+        <v>7175.087954447663</v>
       </c>
       <c r="H39" t="n">
-        <v>33.12499999999999</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2044,40 +1859,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="C40" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="D40" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="E40" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>3527.3135</v>
       </c>
       <c r="G40" t="n">
-        <v>33.34000000000007</v>
+        <v>10702.40145444766</v>
       </c>
       <c r="H40" t="n">
-        <v>33.13166666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2086,40 +1898,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="C41" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="D41" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="E41" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="F41" t="n">
-        <v>51564.4823</v>
+        <v>4518.0722</v>
       </c>
       <c r="G41" t="n">
-        <v>33.36666666666675</v>
+        <v>15220.47365444766</v>
       </c>
       <c r="H41" t="n">
-        <v>33.13833333333334</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,40 +1937,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>33.5</v>
+        <v>33.1</v>
       </c>
       <c r="C42" t="n">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>33.5</v>
+        <v>33.1</v>
       </c>
       <c r="E42" t="n">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="F42" t="n">
-        <v>11</v>
+        <v>44733</v>
       </c>
       <c r="G42" t="n">
-        <v>33.40000000000008</v>
+        <v>-29512.52634555234</v>
       </c>
       <c r="H42" t="n">
-        <v>33.14666666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2170,40 +1976,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="C43" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="D43" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="E43" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="F43" t="n">
-        <v>38355.7182</v>
+        <v>15874.8751</v>
       </c>
       <c r="G43" t="n">
-        <v>33.42666666666674</v>
+        <v>-13637.65124555234</v>
       </c>
       <c r="H43" t="n">
-        <v>33.15333333333334</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,40 +2015,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="C44" t="n">
-        <v>33.6</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
-        <v>33.6</v>
+        <v>33.1</v>
       </c>
       <c r="E44" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="F44" t="n">
-        <v>30938.34655238095</v>
+        <v>180000</v>
       </c>
       <c r="G44" t="n">
-        <v>33.45333333333341</v>
+        <v>-193637.6512455523</v>
       </c>
       <c r="H44" t="n">
-        <v>33.165</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2254,76 +2054,76 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="C45" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="D45" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="E45" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="F45" t="n">
-        <v>5989.0448</v>
+        <v>17413.765</v>
       </c>
       <c r="G45" t="n">
-        <v>33.46000000000007</v>
+        <v>-176223.8862455523</v>
       </c>
       <c r="H45" t="n">
-        <v>33.17666666666666</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="C46" t="n">
         <v>33.2</v>
       </c>
       <c r="D46" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="E46" t="n">
         <v>33.2</v>
       </c>
       <c r="F46" t="n">
-        <v>13849.08</v>
+        <v>13642.1355</v>
       </c>
       <c r="G46" t="n">
-        <v>33.45333333333341</v>
+        <v>-176223.8862455523</v>
       </c>
       <c r="H46" t="n">
-        <v>33.18166666666666</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,36 +2132,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="C47" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="D47" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="E47" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>7918.4084</v>
       </c>
       <c r="G47" t="n">
-        <v>33.46666666666674</v>
+        <v>-168305.4778455523</v>
       </c>
       <c r="H47" t="n">
-        <v>33.19166666666666</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2370,36 +2171,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="C48" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="E48" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F48" t="n">
-        <v>36023.01</v>
+        <v>16000</v>
       </c>
       <c r="G48" t="n">
-        <v>33.4333333333334</v>
+        <v>-184305.4778455523</v>
       </c>
       <c r="H48" t="n">
-        <v>33.19333333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,36 +2210,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="C49" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="D49" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="E49" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="F49" t="n">
-        <v>3856.97</v>
+        <v>110726.8296</v>
       </c>
       <c r="G49" t="n">
-        <v>33.41333333333341</v>
+        <v>-295032.3074455523</v>
       </c>
       <c r="H49" t="n">
-        <v>33.19666666666667</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2446,36 +2249,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="C50" t="n">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="D50" t="n">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="E50" t="n">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>13893.3636</v>
       </c>
       <c r="G50" t="n">
-        <v>33.40000000000007</v>
+        <v>-281138.9438455523</v>
       </c>
       <c r="H50" t="n">
-        <v>33.205</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2484,36 +2288,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="C51" t="n">
         <v>33</v>
       </c>
       <c r="D51" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="E51" t="n">
         <v>33</v>
       </c>
       <c r="F51" t="n">
-        <v>72670.46000000001</v>
+        <v>151.5151</v>
       </c>
       <c r="G51" t="n">
-        <v>33.36666666666675</v>
+        <v>-281138.9438455523</v>
       </c>
       <c r="H51" t="n">
-        <v>33.20333333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2522,36 +2327,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="C52" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="D52" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="E52" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="F52" t="n">
-        <v>94.084</v>
+        <v>31768.2543</v>
       </c>
       <c r="G52" t="n">
-        <v>33.34000000000007</v>
+        <v>-281138.9438455523</v>
       </c>
       <c r="H52" t="n">
-        <v>33.20666666666666</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2560,36 +2366,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>33.4</v>
+        <v>32.9</v>
       </c>
       <c r="C53" t="n">
-        <v>33.4</v>
+        <v>32.8</v>
       </c>
       <c r="D53" t="n">
-        <v>33.4</v>
+        <v>32.9</v>
       </c>
       <c r="E53" t="n">
-        <v>33.4</v>
+        <v>32.8</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>13814.3485</v>
       </c>
       <c r="G53" t="n">
-        <v>33.34666666666674</v>
+        <v>-294953.2923455524</v>
       </c>
       <c r="H53" t="n">
-        <v>33.20666666666666</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2598,36 +2405,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>33.3</v>
+        <v>32.9</v>
       </c>
       <c r="C54" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D54" t="n">
-        <v>33.3</v>
+        <v>32.9</v>
       </c>
       <c r="E54" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F54" t="n">
-        <v>200</v>
+        <v>6100</v>
       </c>
       <c r="G54" t="n">
-        <v>33.33333333333341</v>
+        <v>-288853.2923455524</v>
       </c>
       <c r="H54" t="n">
-        <v>33.2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2639,33 +2447,34 @@
         <v>33</v>
       </c>
       <c r="C55" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="D55" t="n">
         <v>33</v>
       </c>
       <c r="E55" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="F55" t="n">
-        <v>13148.57</v>
+        <v>13944.995</v>
       </c>
       <c r="G55" t="n">
-        <v>33.30000000000008</v>
+        <v>-274908.2973455524</v>
       </c>
       <c r="H55" t="n">
-        <v>33.19833333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2674,36 +2483,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="C56" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="E56" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G56" t="n">
-        <v>33.30000000000008</v>
+        <v>-274908.2973455524</v>
       </c>
       <c r="H56" t="n">
-        <v>33.205</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,24 +2534,25 @@
         <v>33</v>
       </c>
       <c r="F57" t="n">
-        <v>6092.61</v>
+        <v>36519.16</v>
       </c>
       <c r="G57" t="n">
-        <v>33.26666666666675</v>
+        <v>-274908.2973455524</v>
       </c>
       <c r="H57" t="n">
-        <v>33.205</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2750,36 +2561,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="C58" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="D58" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="E58" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="F58" t="n">
-        <v>6861.77</v>
+        <v>625.6077</v>
       </c>
       <c r="G58" t="n">
-        <v>33.24000000000009</v>
+        <v>-274282.6896455524</v>
       </c>
       <c r="H58" t="n">
-        <v>33.19833333333333</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2788,7 +2602,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="C59" t="n">
         <v>33.4</v>
@@ -2797,27 +2611,28 @@
         <v>33.4</v>
       </c>
       <c r="E59" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="F59" t="n">
-        <v>40</v>
+        <v>41583.7672</v>
       </c>
       <c r="G59" t="n">
-        <v>33.22666666666675</v>
+        <v>-232698.9224455524</v>
       </c>
       <c r="H59" t="n">
-        <v>33.20166666666667</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2826,36 +2641,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="C60" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="D60" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="E60" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="F60" t="n">
-        <v>7085.44</v>
+        <v>9249.582399999999</v>
       </c>
       <c r="G60" t="n">
-        <v>33.19333333333341</v>
+        <v>-241948.5048455524</v>
       </c>
       <c r="H60" t="n">
-        <v>33.19833333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2864,36 +2680,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="C61" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="D61" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="E61" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="F61" t="n">
-        <v>12</v>
+        <v>60750.4176</v>
       </c>
       <c r="G61" t="n">
-        <v>33.20666666666675</v>
+        <v>-241948.5048455524</v>
       </c>
       <c r="H61" t="n">
-        <v>33.205</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2902,36 +2719,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="C62" t="n">
-        <v>33.1</v>
+        <v>33.6</v>
       </c>
       <c r="D62" t="n">
-        <v>33.1</v>
+        <v>33.6</v>
       </c>
       <c r="E62" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="F62" t="n">
-        <v>60705.383</v>
+        <v>157927.6465</v>
       </c>
       <c r="G62" t="n">
-        <v>33.18000000000008</v>
+        <v>-84020.85834555238</v>
       </c>
       <c r="H62" t="n">
-        <v>33.20666666666666</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2940,36 +2758,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="C63" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="D63" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="E63" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="F63" t="n">
-        <v>11</v>
+        <v>44278.0763</v>
       </c>
       <c r="G63" t="n">
-        <v>33.20000000000007</v>
+        <v>-128298.9346455524</v>
       </c>
       <c r="H63" t="n">
-        <v>33.21333333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2978,74 +2797,70 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>33.2</v>
+        <v>33.7</v>
       </c>
       <c r="C64" t="n">
-        <v>33</v>
+        <v>33.7</v>
       </c>
       <c r="D64" t="n">
-        <v>33.2</v>
+        <v>33.7</v>
       </c>
       <c r="E64" t="n">
-        <v>33</v>
+        <v>33.7</v>
       </c>
       <c r="F64" t="n">
-        <v>132276.61</v>
+        <v>11</v>
       </c>
       <c r="G64" t="n">
-        <v>33.18666666666675</v>
+        <v>-128287.9346455524</v>
       </c>
       <c r="H64" t="n">
-        <v>33.21166666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>33</v>
+        <v>33.5</v>
       </c>
       <c r="C65" t="n">
-        <v>33</v>
+        <v>33.5</v>
       </c>
       <c r="D65" t="n">
-        <v>33</v>
+        <v>33.5</v>
       </c>
       <c r="E65" t="n">
-        <v>33</v>
+        <v>33.5</v>
       </c>
       <c r="F65" t="n">
-        <v>18783.0755</v>
+        <v>20522.553</v>
       </c>
       <c r="G65" t="n">
-        <v>33.15333333333341</v>
+        <v>-148810.4876455524</v>
       </c>
       <c r="H65" t="n">
-        <v>33.20833333333334</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,36 +2869,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="C66" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="D66" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="E66" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="F66" t="n">
         <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>33.18000000000007</v>
+        <v>-148800.4876455524</v>
       </c>
       <c r="H66" t="n">
-        <v>33.21333333333334</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3092,36 +2904,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="C67" t="n">
-        <v>32.9</v>
+        <v>33.3</v>
       </c>
       <c r="D67" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="E67" t="n">
-        <v>32.9</v>
+        <v>33.3</v>
       </c>
       <c r="F67" t="n">
-        <v>138573.1825</v>
+        <v>44328.3705</v>
       </c>
       <c r="G67" t="n">
-        <v>33.1533333333334</v>
+        <v>-193128.8581455524</v>
       </c>
       <c r="H67" t="n">
-        <v>33.21000000000001</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,24 +2951,21 @@
         <v>33.2</v>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>4239.0795</v>
       </c>
       <c r="G68" t="n">
-        <v>33.14000000000007</v>
+        <v>-197367.9376455524</v>
       </c>
       <c r="H68" t="n">
-        <v>33.21166666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3168,36 +2974,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="C69" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="D69" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="E69" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="F69" t="n">
-        <v>30089.0034</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>33.14000000000007</v>
+        <v>-197357.9376455524</v>
       </c>
       <c r="H69" t="n">
-        <v>33.21000000000001</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3206,36 +3009,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="C70" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="D70" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="E70" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="F70" t="n">
-        <v>33054.19</v>
+        <v>51564.4823</v>
       </c>
       <c r="G70" t="n">
-        <v>33.14666666666674</v>
+        <v>-197357.9376455524</v>
       </c>
       <c r="H70" t="n">
-        <v>33.21000000000001</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3244,36 +3044,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="C71" t="n">
-        <v>33</v>
+        <v>33.5</v>
       </c>
       <c r="D71" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="E71" t="n">
-        <v>33</v>
+        <v>33.5</v>
       </c>
       <c r="F71" t="n">
-        <v>102130.7217</v>
+        <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>33.12000000000008</v>
+        <v>-197346.9376455524</v>
       </c>
       <c r="H71" t="n">
-        <v>33.20833333333334</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3282,36 +3079,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="C72" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="D72" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="E72" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="F72" t="n">
-        <v>84597.1072</v>
+        <v>38355.7182</v>
       </c>
       <c r="G72" t="n">
-        <v>33.12000000000008</v>
+        <v>-235702.6558455524</v>
       </c>
       <c r="H72" t="n">
-        <v>33.20500000000001</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3320,36 +3114,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="C73" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="D73" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="E73" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>30938.34655238095</v>
       </c>
       <c r="G73" t="n">
-        <v>33.14000000000007</v>
+        <v>-204764.3092931714</v>
       </c>
       <c r="H73" t="n">
-        <v>33.21000000000001</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3358,36 +3149,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="C74" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="D74" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="E74" t="n">
         <v>33.3</v>
       </c>
       <c r="F74" t="n">
-        <v>210.2102102102102</v>
+        <v>5989.0448</v>
       </c>
       <c r="G74" t="n">
-        <v>33.1333333333334</v>
+        <v>-210753.3540931714</v>
       </c>
       <c r="H74" t="n">
-        <v>33.21166666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3399,33 +3187,30 @@
         <v>33.3</v>
       </c>
       <c r="C75" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="D75" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="E75" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="F75" t="n">
-        <v>154379.5808</v>
+        <v>13849.08</v>
       </c>
       <c r="G75" t="n">
-        <v>33.16000000000007</v>
+        <v>-224602.4340931714</v>
       </c>
       <c r="H75" t="n">
-        <v>33.21833333333334</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,36 +3219,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="C76" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="D76" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="E76" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="F76" t="n">
-        <v>117850.5465</v>
+        <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>33.1533333333334</v>
+        <v>-224591.4340931714</v>
       </c>
       <c r="H76" t="n">
-        <v>33.22000000000001</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3472,36 +3254,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="C77" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="D77" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="E77" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="F77" t="n">
-        <v>51372.6667</v>
+        <v>36023.01</v>
       </c>
       <c r="G77" t="n">
-        <v>33.16666666666673</v>
+        <v>-260614.4440931714</v>
       </c>
       <c r="H77" t="n">
-        <v>33.22166666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,33 +3292,30 @@
         <v>33.2</v>
       </c>
       <c r="C78" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="D78" t="n">
         <v>33.2</v>
       </c>
       <c r="E78" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="F78" t="n">
-        <v>44370.4033</v>
+        <v>3856.97</v>
       </c>
       <c r="G78" t="n">
-        <v>33.14666666666673</v>
+        <v>-256757.4740931714</v>
       </c>
       <c r="H78" t="n">
-        <v>33.21833333333334</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,36 +3324,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="C79" t="n">
-        <v>33</v>
+        <v>33.5</v>
       </c>
       <c r="D79" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="E79" t="n">
-        <v>33</v>
+        <v>33.5</v>
       </c>
       <c r="F79" t="n">
-        <v>175044.0139</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>33.14666666666673</v>
+        <v>-256747.4740931714</v>
       </c>
       <c r="H79" t="n">
-        <v>33.21833333333334</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3586,36 +3359,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="C80" t="n">
         <v>33</v>
       </c>
       <c r="D80" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="E80" t="n">
         <v>33</v>
       </c>
       <c r="F80" t="n">
-        <v>45221.2663</v>
+        <v>72670.46000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>33.14666666666673</v>
+        <v>-329417.9340931714</v>
       </c>
       <c r="H80" t="n">
-        <v>33.22000000000001</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3624,36 +3394,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="C81" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="D81" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="E81" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="F81" t="n">
-        <v>47007.8837</v>
+        <v>94.084</v>
       </c>
       <c r="G81" t="n">
-        <v>33.12000000000007</v>
+        <v>-329323.8500931715</v>
       </c>
       <c r="H81" t="n">
-        <v>33.22000000000001</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3662,36 +3429,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>32.9</v>
+        <v>33.4</v>
       </c>
       <c r="C82" t="n">
-        <v>32.9</v>
+        <v>33.4</v>
       </c>
       <c r="D82" t="n">
-        <v>32.9</v>
+        <v>33.4</v>
       </c>
       <c r="E82" t="n">
-        <v>32.9</v>
+        <v>33.4</v>
       </c>
       <c r="F82" t="n">
-        <v>50134.1945</v>
+        <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>33.12000000000007</v>
+        <v>-329313.8500931715</v>
       </c>
       <c r="H82" t="n">
-        <v>33.21833333333334</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3700,36 +3464,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>32.9</v>
+        <v>33.3</v>
       </c>
       <c r="C83" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="D83" t="n">
-        <v>32.9</v>
+        <v>33.3</v>
       </c>
       <c r="E83" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="F83" t="n">
-        <v>10573.0218</v>
+        <v>200</v>
       </c>
       <c r="G83" t="n">
-        <v>33.10000000000007</v>
+        <v>-329513.8500931715</v>
       </c>
       <c r="H83" t="n">
-        <v>33.21666666666668</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,36 +3499,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="C84" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="D84" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="E84" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>13148.57</v>
       </c>
       <c r="G84" t="n">
-        <v>33.11333333333339</v>
+        <v>-342662.4200931715</v>
       </c>
       <c r="H84" t="n">
-        <v>33.22333333333334</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3776,36 +3534,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>32.9</v>
+        <v>33.4</v>
       </c>
       <c r="C85" t="n">
-        <v>32.8</v>
+        <v>33.4</v>
       </c>
       <c r="D85" t="n">
-        <v>32.9</v>
+        <v>33.4</v>
       </c>
       <c r="E85" t="n">
-        <v>32.8</v>
+        <v>33.4</v>
       </c>
       <c r="F85" t="n">
-        <v>8297.851000000001</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>33.10000000000006</v>
+        <v>-342652.4200931715</v>
       </c>
       <c r="H85" t="n">
-        <v>33.22166666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,36 +3569,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="C86" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="D86" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="E86" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>6092.61</v>
       </c>
       <c r="G86" t="n">
-        <v>33.11333333333339</v>
+        <v>-348745.0300931715</v>
       </c>
       <c r="H86" t="n">
-        <v>33.22500000000001</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3855,33 +3607,30 @@
         <v>33</v>
       </c>
       <c r="C87" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="D87" t="n">
         <v>33</v>
       </c>
       <c r="E87" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="F87" t="n">
-        <v>165287.0217</v>
+        <v>6861.77</v>
       </c>
       <c r="G87" t="n">
-        <v>33.10000000000006</v>
+        <v>-348745.0300931715</v>
       </c>
       <c r="H87" t="n">
-        <v>33.22166666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,36 +3639,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C88" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="D88" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="E88" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G88" t="n">
-        <v>33.08666666666673</v>
+        <v>-348705.0300931715</v>
       </c>
       <c r="H88" t="n">
-        <v>33.22333333333334</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3928,36 +3674,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="C89" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="D89" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="E89" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="F89" t="n">
-        <v>41595.0548</v>
+        <v>7085.44</v>
       </c>
       <c r="G89" t="n">
-        <v>33.06000000000007</v>
+        <v>-355790.4700931715</v>
       </c>
       <c r="H89" t="n">
-        <v>33.21833333333334</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,36 +3709,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="C90" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="D90" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="E90" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="F90" t="n">
-        <v>406.2238</v>
+        <v>12</v>
       </c>
       <c r="G90" t="n">
-        <v>33.04000000000006</v>
+        <v>-355778.4700931715</v>
       </c>
       <c r="H90" t="n">
-        <v>33.21333333333334</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4016,24 +3756,21 @@
         <v>33.1</v>
       </c>
       <c r="F91" t="n">
-        <v>3.7762</v>
+        <v>60705.383</v>
       </c>
       <c r="G91" t="n">
-        <v>33.02666666666673</v>
+        <v>-416483.8530931715</v>
       </c>
       <c r="H91" t="n">
-        <v>33.21</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4042,36 +3779,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="C92" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="D92" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="E92" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="F92" t="n">
-        <v>39396.6363</v>
+        <v>11</v>
       </c>
       <c r="G92" t="n">
-        <v>33.00666666666673</v>
+        <v>-416472.8530931715</v>
       </c>
       <c r="H92" t="n">
-        <v>33.20500000000001</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4080,36 +3814,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="C93" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="D93" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="E93" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F93" t="n">
-        <v>4913.0102</v>
+        <v>132276.61</v>
       </c>
       <c r="G93" t="n">
-        <v>33.00666666666673</v>
+        <v>-548749.4630931715</v>
       </c>
       <c r="H93" t="n">
-        <v>33.19666666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4130,24 +3861,21 @@
         <v>33</v>
       </c>
       <c r="F94" t="n">
-        <v>5113.6363</v>
+        <v>18783.0755</v>
       </c>
       <c r="G94" t="n">
-        <v>33.00666666666673</v>
+        <v>-548749.4630931715</v>
       </c>
       <c r="H94" t="n">
-        <v>33.18833333333334</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4156,36 +3884,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="C95" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="D95" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="E95" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="F95" t="n">
-        <v>12935.7272</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>33.00666666666673</v>
+        <v>-548739.4630931715</v>
       </c>
       <c r="H95" t="n">
-        <v>33.17666666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,36 +3919,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="C96" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D96" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="E96" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F96" t="n">
-        <v>5113.6363</v>
+        <v>138573.1825</v>
       </c>
       <c r="G96" t="n">
-        <v>33.00666666666673</v>
+        <v>-687312.6455931715</v>
       </c>
       <c r="H96" t="n">
-        <v>33.16833333333334</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4232,36 +3954,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="C97" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="D97" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="E97" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="F97" t="n">
-        <v>4089.1339</v>
+        <v>11</v>
       </c>
       <c r="G97" t="n">
-        <v>33.02000000000007</v>
+        <v>-687301.6455931715</v>
       </c>
       <c r="H97" t="n">
-        <v>33.15833333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,36 +3989,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="C98" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="D98" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="E98" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>30089.0034</v>
       </c>
       <c r="G98" t="n">
-        <v>33.04000000000007</v>
+        <v>-717390.6489931715</v>
       </c>
       <c r="H98" t="n">
-        <v>33.15666666666667</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4308,36 +4024,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C99" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="D99" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E99" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F99" t="n">
-        <v>10367.44</v>
+        <v>33054.19</v>
       </c>
       <c r="G99" t="n">
-        <v>33.0333333333334</v>
+        <v>-717390.6489931715</v>
       </c>
       <c r="H99" t="n">
-        <v>33.155</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4346,36 +4059,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="C100" t="n">
         <v>33</v>
       </c>
       <c r="D100" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="E100" t="n">
         <v>33</v>
       </c>
       <c r="F100" t="n">
-        <v>22158.39</v>
+        <v>102130.7217</v>
       </c>
       <c r="G100" t="n">
-        <v>33.04666666666675</v>
+        <v>-717390.6489931715</v>
       </c>
       <c r="H100" t="n">
-        <v>33.14833333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,36 +4094,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="C101" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="D101" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="E101" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="F101" t="n">
-        <v>806.2238</v>
+        <v>84597.1072</v>
       </c>
       <c r="G101" t="n">
-        <v>33.04666666666675</v>
+        <v>-717390.6489931715</v>
       </c>
       <c r="H101" t="n">
-        <v>33.145</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4422,36 +4129,1048 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="C102" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="D102" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="E102" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="F102" t="n">
-        <v>110000</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>33.07333333333341</v>
+        <v>-717380.6489931715</v>
       </c>
       <c r="H102" t="n">
-        <v>33.14</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C103" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D103" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E103" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F103" t="n">
+        <v>210.2102102102102</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-717380.6489931715</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D104" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E104" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>154379.5808</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-563001.0681931715</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D105" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E105" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>117850.5465</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-680851.6146931716</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C106" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D106" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E106" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F106" t="n">
+        <v>51372.6667</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-680851.6146931716</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C107" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E107" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>44370.4033</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-725222.0179931716</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>33</v>
+      </c>
+      <c r="D108" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>33</v>
+      </c>
+      <c r="F108" t="n">
+        <v>175044.0139</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-900266.0318931716</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>33</v>
+      </c>
+      <c r="C109" t="n">
+        <v>33</v>
+      </c>
+      <c r="D109" t="n">
+        <v>33</v>
+      </c>
+      <c r="E109" t="n">
+        <v>33</v>
+      </c>
+      <c r="F109" t="n">
+        <v>45221.2663</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-900266.0318931716</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>33</v>
+      </c>
+      <c r="D110" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>33</v>
+      </c>
+      <c r="F110" t="n">
+        <v>47007.8837</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-900266.0318931716</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C111" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D111" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E111" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F111" t="n">
+        <v>50134.1945</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-950400.2263931716</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C112" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10573.0218</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-950400.2263931716</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>10</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-950390.2263931716</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C114" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D114" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E114" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>8297.851000000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-958688.0773931716</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-958678.0773931716</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>33</v>
+      </c>
+      <c r="C116" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>33</v>
+      </c>
+      <c r="E116" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F116" t="n">
+        <v>165287.0217</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1123965.099093172</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>10</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1123955.099093172</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C118" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D118" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E118" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>41595.0548</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1165550.153893172</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>406.2238</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1165143.930093172</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3.7762</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1165143.930093172</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>33</v>
+      </c>
+      <c r="C121" t="n">
+        <v>33</v>
+      </c>
+      <c r="D121" t="n">
+        <v>33</v>
+      </c>
+      <c r="E121" t="n">
+        <v>33</v>
+      </c>
+      <c r="F121" t="n">
+        <v>39396.6363</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1204540.566393171</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4913.0102</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1199627.556193172</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>33</v>
+      </c>
+      <c r="C123" t="n">
+        <v>33</v>
+      </c>
+      <c r="D123" t="n">
+        <v>33</v>
+      </c>
+      <c r="E123" t="n">
+        <v>33</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5113.6363</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1204741.192493171</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>33</v>
+      </c>
+      <c r="C124" t="n">
+        <v>33</v>
+      </c>
+      <c r="D124" t="n">
+        <v>33</v>
+      </c>
+      <c r="E124" t="n">
+        <v>33</v>
+      </c>
+      <c r="F124" t="n">
+        <v>12935.7272</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1204741.192493171</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>33</v>
+      </c>
+      <c r="C125" t="n">
+        <v>33</v>
+      </c>
+      <c r="D125" t="n">
+        <v>33</v>
+      </c>
+      <c r="E125" t="n">
+        <v>33</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5113.6363</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1204741.192493171</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4089.1339</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1200652.058593171</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>10</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1200642.058593171</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10367.44</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1211009.498593171</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>33</v>
+      </c>
+      <c r="D129" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>33</v>
+      </c>
+      <c r="F129" t="n">
+        <v>22158.39</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1233167.888593171</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C130" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D130" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>806.2238</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1232361.664793171</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C131" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F131" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-1232361.664793171</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest ETZ.xlsx
+++ b/BackTest/2019-11-02 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -993,6 +1013,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,6 +1053,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1073,6 +1095,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1112,6 +1135,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1151,6 +1175,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1190,6 +1215,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1217,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1229,6 +1255,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1268,6 +1295,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1295,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1307,6 +1335,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1346,6 +1375,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1385,6 +1415,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1424,6 +1455,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1463,6 +1495,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1502,6 +1535,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1541,6 +1575,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1580,6 +1615,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1619,6 +1655,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1658,6 +1695,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1697,6 +1735,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1736,6 +1775,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1775,6 +1815,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1814,6 +1855,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1853,6 +1895,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1892,6 +1935,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1931,6 +1975,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1970,6 +2015,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2009,6 +2055,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2048,6 +2095,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2087,6 +2135,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2126,6 +2175,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2165,6 +2215,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2204,6 +2255,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2243,6 +2295,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2282,6 +2335,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2321,6 +2375,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2360,6 +2415,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2399,6 +2455,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2438,6 +2495,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2477,6 +2535,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2516,6 +2575,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2555,6 +2615,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2596,6 +2657,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2635,6 +2697,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2674,6 +2737,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2713,6 +2777,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2752,6 +2817,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2779,17 +2845,18 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
+        <v>1.009174311926605</v>
       </c>
     </row>
     <row r="64">
@@ -2822,12 +2889,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2863,6 +2929,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2890,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2898,6 +2965,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2933,6 +3001,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2960,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2968,6 +3037,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2995,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3003,6 +3073,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3038,6 +3109,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3065,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3073,6 +3145,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3108,6 +3181,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3143,6 +3217,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3170,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3178,6 +3253,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3213,6 +3289,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3248,6 +3325,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3275,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3283,6 +3361,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3310,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3318,6 +3397,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3345,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3353,6 +3433,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3380,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3388,6 +3469,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3415,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3423,6 +3505,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3450,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3458,6 +3541,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3485,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3493,6 +3577,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3528,6 +3613,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3563,6 +3649,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3590,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3598,6 +3685,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3633,6 +3721,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3668,6 +3757,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3703,6 +3793,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3738,6 +3829,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3773,6 +3865,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3808,6 +3901,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3843,6 +3937,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3878,6 +3973,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3913,6 +4009,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3948,6 +4045,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3983,6 +4081,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4018,6 +4117,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4053,6 +4153,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4088,6 +4189,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4123,6 +4225,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4158,6 +4261,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4193,6 +4297,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4228,6 +4333,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4263,6 +4369,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4298,6 +4405,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4333,6 +4441,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4368,6 +4477,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4403,6 +4513,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4438,6 +4549,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4473,6 +4585,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4508,6 +4621,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4543,6 +4657,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4578,6 +4693,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4613,6 +4729,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4648,6 +4765,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4683,6 +4801,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4718,6 +4837,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4753,6 +4873,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4788,6 +4909,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4823,6 +4945,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4858,6 +4981,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4893,6 +5017,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4928,6 +5053,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4963,6 +5089,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4998,6 +5125,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5033,6 +5161,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5068,6 +5197,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5103,6 +5233,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5138,6 +5269,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5173,6 +5305,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest ETZ.xlsx
+++ b/BackTest/2019-11-02 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>382792.7136641153</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>372316.1456641153</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>372616.4459641153</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>356522.8638641153</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>247766.1480544477</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,19 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="J37" t="n">
+        <v>33</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1643,23 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="J38" t="n">
+        <v>33</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1686,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>33</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1725,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1758,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1791,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,22 +1822,15 @@
         <v>104152.3507544477</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K43" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1972,1798 +1855,1419 @@
         <v>104174.9646544477</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C45" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D45" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E45" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F45" t="n">
+        <v>281.5006</v>
+      </c>
+      <c r="G45" t="n">
+        <v>104174.9646544477</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C46" t="n">
+        <v>33</v>
+      </c>
+      <c r="D46" t="n">
+        <v>33</v>
+      </c>
+      <c r="E46" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F46" t="n">
+        <v>173.8114</v>
+      </c>
+      <c r="G46" t="n">
+        <v>104348.7760544477</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>33</v>
+      </c>
+      <c r="C47" t="n">
+        <v>33</v>
+      </c>
+      <c r="D47" t="n">
+        <v>33</v>
+      </c>
+      <c r="E47" t="n">
+        <v>33</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4545.4545</v>
+      </c>
+      <c r="G47" t="n">
+        <v>104348.7760544477</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>33</v>
+      </c>
+      <c r="C48" t="n">
+        <v>33</v>
+      </c>
+      <c r="D48" t="n">
+        <v>33</v>
+      </c>
+      <c r="E48" t="n">
+        <v>33</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5139.7081</v>
+      </c>
+      <c r="G48" t="n">
+        <v>104348.7760544477</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>11</v>
+      </c>
+      <c r="G49" t="n">
+        <v>104359.7760544477</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>389</v>
+      </c>
+      <c r="G50" t="n">
+        <v>104359.7760544477</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C51" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E51" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>44</v>
+      </c>
+      <c r="G51" t="n">
+        <v>104403.7760544477</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E52" t="n">
+        <v>33</v>
+      </c>
+      <c r="F52" t="n">
+        <v>79094.7876</v>
+      </c>
+      <c r="G52" t="n">
+        <v>104403.7760544477</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>33</v>
+      </c>
+      <c r="D53" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>33</v>
+      </c>
+      <c r="F53" t="n">
+        <v>24248.2251</v>
+      </c>
+      <c r="G53" t="n">
+        <v>80155.55095444767</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>33</v>
+      </c>
+      <c r="C54" t="n">
+        <v>33</v>
+      </c>
+      <c r="D54" t="n">
+        <v>33</v>
+      </c>
+      <c r="E54" t="n">
+        <v>33</v>
+      </c>
+      <c r="F54" t="n">
+        <v>31909.4242</v>
+      </c>
+      <c r="G54" t="n">
+        <v>80155.55095444767</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>33</v>
+      </c>
+      <c r="C55" t="n">
+        <v>33</v>
+      </c>
+      <c r="D55" t="n">
+        <v>33</v>
+      </c>
+      <c r="E55" t="n">
+        <v>33</v>
+      </c>
+      <c r="F55" t="n">
+        <v>22927.1383</v>
+      </c>
+      <c r="G55" t="n">
+        <v>80155.55095444767</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C56" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D56" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E56" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>11</v>
+      </c>
+      <c r="G56" t="n">
+        <v>80166.55095444767</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C57" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>260.7371</v>
+      </c>
+      <c r="G57" t="n">
+        <v>79905.81385444767</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C58" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>784.2628999999999</v>
+      </c>
+      <c r="G58" t="n">
+        <v>79905.81385444767</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>33</v>
+      </c>
+      <c r="D59" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>33</v>
+      </c>
+      <c r="F59" t="n">
+        <v>30812.3907</v>
+      </c>
+      <c r="G59" t="n">
+        <v>49093.42315444766</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>33</v>
+      </c>
+      <c r="C60" t="n">
+        <v>33</v>
+      </c>
+      <c r="D60" t="n">
+        <v>33</v>
+      </c>
+      <c r="E60" t="n">
+        <v>33</v>
+      </c>
+      <c r="F60" t="n">
+        <v>33677.5058</v>
+      </c>
+      <c r="G60" t="n">
+        <v>49093.42315444766</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>33</v>
+      </c>
+      <c r="D61" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>33</v>
+      </c>
+      <c r="F61" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>49093.42315444766</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10</v>
+      </c>
+      <c r="G62" t="n">
+        <v>49103.42315444766</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10</v>
+      </c>
+      <c r="G63" t="n">
+        <v>49113.42315444766</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>316.0386</v>
+      </c>
+      <c r="G64" t="n">
+        <v>48797.38455444766</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>13814.3484</v>
+      </c>
+      <c r="G65" t="n">
+        <v>48797.38455444766</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>31954.7791</v>
+      </c>
+      <c r="G66" t="n">
+        <v>48797.38455444766</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4570.0604</v>
+      </c>
+      <c r="G67" t="n">
+        <v>48797.38455444766</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>33</v>
+      </c>
+      <c r="C68" t="n">
+        <v>33</v>
+      </c>
+      <c r="D68" t="n">
+        <v>33</v>
+      </c>
+      <c r="E68" t="n">
+        <v>33</v>
+      </c>
+      <c r="F68" t="n">
+        <v>41622.2966</v>
+      </c>
+      <c r="G68" t="n">
+        <v>7175.087954447663</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3527.3135</v>
+      </c>
+      <c r="G69" t="n">
+        <v>10702.40145444766</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4518.0722</v>
+      </c>
+      <c r="G70" t="n">
+        <v>15220.47365444766</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>33</v>
+      </c>
+      <c r="D71" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>33</v>
+      </c>
+      <c r="F71" t="n">
+        <v>44733</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-29512.52634555234</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>15874.8751</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-13637.65124555234</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>33</v>
+      </c>
+      <c r="D73" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>33</v>
+      </c>
+      <c r="F73" t="n">
+        <v>180000</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-193637.6512455523</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E74" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>17413.765</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-176223.8862455523</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>13642.1355</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-176223.8862455523</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C76" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E76" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F76" t="n">
+        <v>7918.4084</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-168305.4778455523</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>33</v>
+      </c>
+      <c r="D77" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>33</v>
+      </c>
+      <c r="F77" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-184305.4778455523</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>33</v>
+      </c>
+      <c r="C78" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D78" t="n">
+        <v>33</v>
+      </c>
+      <c r="E78" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F78" t="n">
+        <v>110726.8296</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-295032.3074455523</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>33</v>
+      </c>
+      <c r="C79" t="n">
+        <v>33</v>
+      </c>
+      <c r="D79" t="n">
+        <v>33</v>
+      </c>
+      <c r="E79" t="n">
+        <v>33</v>
+      </c>
+      <c r="F79" t="n">
+        <v>13893.3636</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-281138.9438455523</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>33</v>
+      </c>
+      <c r="C80" t="n">
+        <v>33</v>
+      </c>
+      <c r="D80" t="n">
+        <v>33</v>
+      </c>
+      <c r="E80" t="n">
+        <v>33</v>
+      </c>
+      <c r="F80" t="n">
+        <v>151.5151</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-281138.9438455523</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>33</v>
+      </c>
+      <c r="C81" t="n">
+        <v>33</v>
+      </c>
+      <c r="D81" t="n">
+        <v>33</v>
+      </c>
+      <c r="E81" t="n">
+        <v>33</v>
+      </c>
+      <c r="F81" t="n">
+        <v>31768.2543</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-281138.9438455523</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C82" t="n">
         <v>32.8</v>
       </c>
-      <c r="K44" t="n">
+      <c r="D82" t="n">
         <v>32.9</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="E82" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F82" t="n">
+        <v>13814.3485</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-294953.2923455524</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C83" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>6100</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-288853.2923455524</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>33</v>
+      </c>
+      <c r="C84" t="n">
+        <v>33</v>
+      </c>
+      <c r="D84" t="n">
+        <v>33</v>
+      </c>
+      <c r="E84" t="n">
+        <v>33</v>
+      </c>
+      <c r="F84" t="n">
+        <v>13944.995</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-274908.2973455524</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="J84" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>33</v>
+      </c>
+      <c r="D85" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>33</v>
+      </c>
+      <c r="F85" t="n">
+        <v>55</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-274908.2973455524</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>33</v>
+      </c>
+      <c r="J85" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>33</v>
+      </c>
+      <c r="C86" t="n">
+        <v>33</v>
+      </c>
+      <c r="D86" t="n">
+        <v>33</v>
+      </c>
+      <c r="E86" t="n">
+        <v>33</v>
+      </c>
+      <c r="F86" t="n">
+        <v>36519.16</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-274908.2973455524</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
         <v>32.9</v>
       </c>
-      <c r="C45" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D45" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E45" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F45" t="n">
-        <v>281.5006</v>
-      </c>
-      <c r="G45" t="n">
-        <v>104174.9646544477</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K45" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C46" t="n">
-        <v>33</v>
-      </c>
-      <c r="D46" t="n">
-        <v>33</v>
-      </c>
-      <c r="E46" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F46" t="n">
-        <v>173.8114</v>
-      </c>
-      <c r="G46" t="n">
-        <v>104348.7760544477</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K46" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>33</v>
-      </c>
-      <c r="C47" t="n">
-        <v>33</v>
-      </c>
-      <c r="D47" t="n">
-        <v>33</v>
-      </c>
-      <c r="E47" t="n">
-        <v>33</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4545.4545</v>
-      </c>
-      <c r="G47" t="n">
-        <v>104348.7760544477</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>33</v>
-      </c>
-      <c r="K47" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>33</v>
-      </c>
-      <c r="C48" t="n">
-        <v>33</v>
-      </c>
-      <c r="D48" t="n">
-        <v>33</v>
-      </c>
-      <c r="E48" t="n">
-        <v>33</v>
-      </c>
-      <c r="F48" t="n">
-        <v>5139.7081</v>
-      </c>
-      <c r="G48" t="n">
-        <v>104348.7760544477</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>33</v>
-      </c>
-      <c r="K48" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>11</v>
-      </c>
-      <c r="G49" t="n">
-        <v>104359.7760544477</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F50" t="n">
-        <v>389</v>
-      </c>
-      <c r="G50" t="n">
-        <v>104359.7760544477</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="C51" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="D51" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="E51" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="F51" t="n">
-        <v>44</v>
-      </c>
-      <c r="G51" t="n">
-        <v>104403.7760544477</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="D52" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="E52" t="n">
-        <v>33</v>
-      </c>
-      <c r="F52" t="n">
-        <v>79094.7876</v>
-      </c>
-      <c r="G52" t="n">
-        <v>104403.7760544477</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C53" t="n">
-        <v>33</v>
-      </c>
-      <c r="D53" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E53" t="n">
-        <v>33</v>
-      </c>
-      <c r="F53" t="n">
-        <v>24248.2251</v>
-      </c>
-      <c r="G53" t="n">
-        <v>80155.55095444767</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>33</v>
-      </c>
-      <c r="C54" t="n">
-        <v>33</v>
-      </c>
-      <c r="D54" t="n">
-        <v>33</v>
-      </c>
-      <c r="E54" t="n">
-        <v>33</v>
-      </c>
-      <c r="F54" t="n">
-        <v>31909.4242</v>
-      </c>
-      <c r="G54" t="n">
-        <v>80155.55095444767</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>33</v>
-      </c>
-      <c r="C55" t="n">
-        <v>33</v>
-      </c>
-      <c r="D55" t="n">
-        <v>33</v>
-      </c>
-      <c r="E55" t="n">
-        <v>33</v>
-      </c>
-      <c r="F55" t="n">
-        <v>22927.1383</v>
-      </c>
-      <c r="G55" t="n">
-        <v>80155.55095444767</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="C56" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="D56" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="E56" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="F56" t="n">
-        <v>11</v>
-      </c>
-      <c r="G56" t="n">
-        <v>80166.55095444767</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="C57" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D57" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="E57" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F57" t="n">
-        <v>260.7371</v>
-      </c>
-      <c r="G57" t="n">
-        <v>79905.81385444767</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C58" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D58" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="E58" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F58" t="n">
-        <v>784.2628999999999</v>
-      </c>
-      <c r="G58" t="n">
-        <v>79905.81385444767</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>33</v>
-      </c>
-      <c r="D59" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E59" t="n">
-        <v>33</v>
-      </c>
-      <c r="F59" t="n">
-        <v>30812.3907</v>
-      </c>
-      <c r="G59" t="n">
-        <v>49093.42315444766</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>33</v>
-      </c>
-      <c r="C60" t="n">
-        <v>33</v>
-      </c>
-      <c r="D60" t="n">
-        <v>33</v>
-      </c>
-      <c r="E60" t="n">
-        <v>33</v>
-      </c>
-      <c r="F60" t="n">
-        <v>33677.5058</v>
-      </c>
-      <c r="G60" t="n">
-        <v>49093.42315444766</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C61" t="n">
-        <v>33</v>
-      </c>
-      <c r="D61" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>33</v>
-      </c>
-      <c r="F61" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G61" t="n">
-        <v>49093.42315444766</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F62" t="n">
-        <v>10</v>
-      </c>
-      <c r="G62" t="n">
-        <v>49103.42315444766</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C63" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D63" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E63" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F63" t="n">
-        <v>10</v>
-      </c>
-      <c r="G63" t="n">
-        <v>49113.42315444766</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>316.0386</v>
-      </c>
-      <c r="G64" t="n">
-        <v>48797.38455444766</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F65" t="n">
-        <v>13814.3484</v>
-      </c>
-      <c r="G65" t="n">
-        <v>48797.38455444766</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C66" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>31954.7791</v>
-      </c>
-      <c r="G66" t="n">
-        <v>48797.38455444766</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F67" t="n">
-        <v>4570.0604</v>
-      </c>
-      <c r="G67" t="n">
-        <v>48797.38455444766</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>33</v>
-      </c>
-      <c r="C68" t="n">
-        <v>33</v>
-      </c>
-      <c r="D68" t="n">
-        <v>33</v>
-      </c>
-      <c r="E68" t="n">
-        <v>33</v>
-      </c>
-      <c r="F68" t="n">
-        <v>41622.2966</v>
-      </c>
-      <c r="G68" t="n">
-        <v>7175.087954447663</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E69" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3527.3135</v>
-      </c>
-      <c r="G69" t="n">
-        <v>10702.40145444766</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C70" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D70" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E70" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F70" t="n">
-        <v>4518.0722</v>
-      </c>
-      <c r="G70" t="n">
-        <v>15220.47365444766</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>33</v>
-      </c>
-      <c r="D71" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>33</v>
-      </c>
-      <c r="F71" t="n">
-        <v>44733</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-29512.52634555234</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C72" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D72" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E72" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F72" t="n">
-        <v>15874.8751</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-13637.65124555234</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>33</v>
-      </c>
-      <c r="D73" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E73" t="n">
-        <v>33</v>
-      </c>
-      <c r="F73" t="n">
-        <v>180000</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-193637.6512455523</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C74" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D74" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E74" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17413.765</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-176223.8862455523</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C75" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D75" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E75" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F75" t="n">
-        <v>13642.1355</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-176223.8862455523</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="C76" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="D76" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="E76" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="F76" t="n">
-        <v>7918.4084</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-168305.4778455523</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C77" t="n">
-        <v>33</v>
-      </c>
-      <c r="D77" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E77" t="n">
-        <v>33</v>
-      </c>
-      <c r="F77" t="n">
-        <v>16000</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-184305.4778455523</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>33</v>
-      </c>
-      <c r="C78" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D78" t="n">
-        <v>33</v>
-      </c>
-      <c r="E78" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F78" t="n">
-        <v>110726.8296</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-295032.3074455523</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>33</v>
-      </c>
-      <c r="C79" t="n">
-        <v>33</v>
-      </c>
-      <c r="D79" t="n">
-        <v>33</v>
-      </c>
-      <c r="E79" t="n">
-        <v>33</v>
-      </c>
-      <c r="F79" t="n">
-        <v>13893.3636</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-281138.9438455523</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>33</v>
-      </c>
-      <c r="C80" t="n">
-        <v>33</v>
-      </c>
-      <c r="D80" t="n">
-        <v>33</v>
-      </c>
-      <c r="E80" t="n">
-        <v>33</v>
-      </c>
-      <c r="F80" t="n">
-        <v>151.5151</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-281138.9438455523</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>33</v>
-      </c>
-      <c r="C81" t="n">
-        <v>33</v>
-      </c>
-      <c r="D81" t="n">
-        <v>33</v>
-      </c>
-      <c r="E81" t="n">
-        <v>33</v>
-      </c>
-      <c r="F81" t="n">
-        <v>31768.2543</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-281138.9438455523</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C82" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D82" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E82" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="F82" t="n">
-        <v>13814.3485</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-294953.2923455524</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C83" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D83" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E83" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F83" t="n">
-        <v>6100</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-288853.2923455524</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>33</v>
-      </c>
-      <c r="C84" t="n">
-        <v>33</v>
-      </c>
-      <c r="D84" t="n">
-        <v>33</v>
-      </c>
-      <c r="E84" t="n">
-        <v>33</v>
-      </c>
-      <c r="F84" t="n">
-        <v>13944.995</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-274908.2973455524</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C85" t="n">
-        <v>33</v>
-      </c>
-      <c r="D85" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E85" t="n">
-        <v>33</v>
-      </c>
-      <c r="F85" t="n">
-        <v>55</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-274908.2973455524</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>33</v>
-      </c>
-      <c r="C86" t="n">
-        <v>33</v>
-      </c>
-      <c r="D86" t="n">
-        <v>33</v>
-      </c>
-      <c r="E86" t="n">
-        <v>33</v>
-      </c>
-      <c r="F86" t="n">
-        <v>36519.16</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-274908.2973455524</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3788,24 +3292,15 @@
         <v>-274282.6896455524</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3832,22 +3327,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3872,24 +3358,15 @@
         <v>-241948.5048455524</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3916,22 +3393,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3956,24 +3424,15 @@
         <v>-84020.85834555238</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3998,24 +3457,15 @@
         <v>-128298.9346455524</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4040,24 +3490,15 @@
         <v>-128287.9346455524</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1.019316109422493</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4082,18 +3523,15 @@
         <v>-148810.4876455524</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4118,18 +3556,15 @@
         <v>-148800.4876455524</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4156,16 +3591,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4190,18 +3622,15 @@
         <v>-197367.9376455524</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4228,16 +3657,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4264,16 +3690,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4298,18 +3721,15 @@
         <v>-197346.9376455524</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4334,18 +3754,15 @@
         <v>-235702.6558455524</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4372,16 +3789,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4408,16 +3822,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4442,18 +3853,15 @@
         <v>-224602.4340931714</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4480,16 +3888,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4516,16 +3921,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4552,16 +3954,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4588,16 +3987,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4624,16 +4020,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4658,18 +4051,15 @@
         <v>-329323.8500931715</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4696,16 +4086,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4732,16 +4119,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4768,16 +4152,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4804,16 +4185,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4840,16 +4218,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4876,16 +4251,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4912,16 +4284,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4948,16 +4317,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4984,16 +4350,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5020,16 +4383,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5056,16 +4416,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5092,16 +4449,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5128,16 +4482,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5164,16 +4515,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5200,16 +4548,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5236,16 +4581,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5272,16 +4614,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5308,16 +4647,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5344,16 +4680,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5380,16 +4713,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5416,16 +4746,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5452,16 +4779,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5488,16 +4812,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5524,16 +4845,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5560,16 +4878,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5596,16 +4911,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5632,16 +4944,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5668,16 +4977,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5704,16 +5010,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5740,16 +5043,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5776,16 +5076,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5812,16 +5109,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5848,16 +5142,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5884,16 +5175,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5920,16 +5208,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5956,16 +5241,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5992,16 +5274,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6028,16 +5307,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6064,16 +5340,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6100,16 +5373,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6136,16 +5406,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6172,16 +5439,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6208,16 +5472,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6244,16 +5505,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6280,16 +5538,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6316,16 +5571,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6352,16 +5604,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6388,16 +5637,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6424,16 +5670,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6460,18 +5703,15 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest ETZ.xlsx
+++ b/BackTest/2019-11-02 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,7 +781,7 @@
         <v>382792.7136641153</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>372316.1456641153</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>372616.4459641153</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>356522.8638641153</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>356024.9963641153</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>247766.1480544477</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>238768.9849544477</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>238768.9849544477</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>251466.4894544477</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>143637.9292544477</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>143637.9292544477</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>143637.9292544477</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1608,12 +1608,8 @@
       <c r="H37" t="n">
         <v>2</v>
       </c>
-      <c r="I37" t="n">
-        <v>33</v>
-      </c>
-      <c r="J37" t="n">
-        <v>33</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1645,17 +1641,9 @@
       <c r="H38" t="n">
         <v>2</v>
       </c>
-      <c r="I38" t="n">
-        <v>33</v>
-      </c>
-      <c r="J38" t="n">
-        <v>33</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1684,17 +1672,11 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>33</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1723,7 +1705,7 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1756,7 +1738,7 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1789,7 +1771,7 @@
         <v>148333.8147544477</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1822,7 +1804,7 @@
         <v>104152.3507544477</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1855,7 +1837,7 @@
         <v>104174.9646544477</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1888,7 +1870,7 @@
         <v>104174.9646544477</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1921,7 +1903,7 @@
         <v>104348.7760544477</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1954,7 +1936,7 @@
         <v>104348.7760544477</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1987,7 +1969,7 @@
         <v>104348.7760544477</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2020,7 +2002,7 @@
         <v>104359.7760544477</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2053,7 +2035,7 @@
         <v>104359.7760544477</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2086,7 +2068,7 @@
         <v>104403.7760544477</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2119,7 +2101,7 @@
         <v>104403.7760544477</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2152,7 +2134,7 @@
         <v>80155.55095444767</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2482,7 +2464,7 @@
         <v>49113.42315444766</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2812,7 +2794,7 @@
         <v>-193637.6512455523</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2878,7 +2860,7 @@
         <v>-176223.8862455523</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3142,10 +3124,14 @@
         <v>-288853.2923455524</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="J83" t="n">
+        <v>32.8</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
@@ -3175,15 +3161,19 @@
         <v>-274908.2973455524</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>32.9</v>
       </c>
       <c r="J84" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+        <v>32.8</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3212,13 +3202,13 @@
         <v>-274908.2973455524</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>33</v>
       </c>
       <c r="J85" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3253,50 +3243,56 @@
         <v>-274908.2973455524</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>33</v>
+      </c>
       <c r="J86" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K86" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>625.6077</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-274282.6896455524</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>33</v>
+      </c>
+      <c r="J87" t="n">
+        <v>33</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C87" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D87" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E87" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F87" t="n">
-        <v>625.6077</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-274282.6896455524</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3328,8 +3324,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>33</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3358,7 +3360,7 @@
         <v>-241948.5048455524</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3424,7 +3426,7 @@
         <v>-84020.85834555238</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3457,7 +3459,7 @@
         <v>-128298.9346455524</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3490,7 +3492,7 @@
         <v>-128287.9346455524</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3523,7 +3525,7 @@
         <v>-148810.4876455524</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3556,7 +3558,7 @@
         <v>-148800.4876455524</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3589,7 +3591,7 @@
         <v>-193128.8581455524</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3622,7 +3624,7 @@
         <v>-197367.9376455524</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3655,7 +3657,7 @@
         <v>-197357.9376455524</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3688,7 +3690,7 @@
         <v>-197357.9376455524</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3721,7 +3723,7 @@
         <v>-197346.9376455524</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3754,7 +3756,7 @@
         <v>-235702.6558455524</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3787,7 +3789,7 @@
         <v>-204764.3092931714</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3820,7 +3822,7 @@
         <v>-210753.3540931714</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3853,7 +3855,7 @@
         <v>-224602.4340931714</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3919,7 +3921,7 @@
         <v>-260614.4440931714</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3952,7 +3954,7 @@
         <v>-256757.4740931714</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3985,7 +3987,7 @@
         <v>-256747.4740931714</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4018,7 +4020,7 @@
         <v>-329417.9340931714</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4051,7 +4053,7 @@
         <v>-329323.8500931715</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4084,7 +4086,7 @@
         <v>-329313.8500931715</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4117,7 +4119,7 @@
         <v>-329513.8500931715</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4150,7 +4152,7 @@
         <v>-342662.4200931715</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4183,7 +4185,7 @@
         <v>-342652.4200931715</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4216,7 +4218,7 @@
         <v>-348745.0300931715</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4249,7 +4251,7 @@
         <v>-348745.0300931715</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5701,10 +5703,14 @@
         <v>-1232361.664793171</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="J160" t="n">
+        <v>33.2</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
@@ -5712,6 +5718,6 @@
       <c r="M160" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest ETZ.xlsx
+++ b/BackTest/2019-11-02 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,7 +946,7 @@
         <v>356024.9963641153</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>238768.9849544477</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>238768.9849544477</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>251466.4894544477</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>143637.9292544477</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>143637.9292544477</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>143637.9292544477</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>148333.8147544477</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>104152.3507544477</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>104174.9646544477</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>104174.9646544477</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>104348.7760544477</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>104348.7760544477</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>104359.7760544477</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>80155.55095444767</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>49113.42315444766</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-193637.6512455523</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-176223.8862455523</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3124,14 +3124,10 @@
         <v>-288853.2923455524</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="J83" t="n">
-        <v>32.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
@@ -3161,19 +3157,11 @@
         <v>-274908.2973455524</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3202,19 +3190,11 @@
         <v>-274908.2973455524</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>33</v>
-      </c>
-      <c r="J85" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3243,14 +3223,10 @@
         <v>-274908.2973455524</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>33</v>
-      </c>
-      <c r="J86" t="n">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
@@ -3280,19 +3256,11 @@
         <v>-274282.6896455524</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>33</v>
-      </c>
-      <c r="J87" t="n">
-        <v>33</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3324,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>33</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3558,7 +3520,7 @@
         <v>-148800.4876455524</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3591,7 +3553,7 @@
         <v>-193128.8581455524</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3624,7 +3586,7 @@
         <v>-197367.9376455524</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3657,7 +3619,7 @@
         <v>-197357.9376455524</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3690,7 +3652,7 @@
         <v>-197357.9376455524</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3723,7 +3685,7 @@
         <v>-197346.9376455524</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3756,7 +3718,7 @@
         <v>-235702.6558455524</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3789,7 +3751,7 @@
         <v>-204764.3092931714</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3822,7 +3784,7 @@
         <v>-210753.3540931714</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3921,7 +3883,7 @@
         <v>-260614.4440931714</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3954,7 +3916,7 @@
         <v>-256757.4740931714</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3987,7 +3949,7 @@
         <v>-256747.4740931714</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4020,7 +3982,7 @@
         <v>-329417.9340931714</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4086,7 +4048,7 @@
         <v>-329313.8500931715</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4119,7 +4081,7 @@
         <v>-329513.8500931715</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4152,7 +4114,7 @@
         <v>-342662.4200931715</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4185,7 +4147,7 @@
         <v>-342652.4200931715</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4218,7 +4180,7 @@
         <v>-348745.0300931715</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4251,7 +4213,7 @@
         <v>-348745.0300931715</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4284,7 +4246,7 @@
         <v>-348705.0300931715</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4317,7 +4279,7 @@
         <v>-355790.4700931715</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4350,7 +4312,7 @@
         <v>-355778.4700931715</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5175,10 +5137,14 @@
         <v>-958678.0773931716</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="J144" t="n">
+        <v>32.8</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5211,8 +5177,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5244,8 +5216,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5277,8 +5255,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5310,8 +5294,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5343,8 +5333,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5376,8 +5372,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5409,8 +5411,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5442,8 +5450,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5475,8 +5489,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5508,8 +5528,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5541,8 +5567,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5574,8 +5606,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5607,8 +5645,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5640,8 +5684,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5673,8 +5723,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5703,21 +5759,23 @@
         <v>-1232361.664793171</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
+        <v>32.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
       <c r="M160" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest ETZ.xlsx
+++ b/BackTest/2019-11-02 BackTest ETZ.xlsx
@@ -1969,7 +1969,7 @@
         <v>104348.7760544477</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>104359.7760544477</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>104403.7760544477</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>104403.7760544477</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>80155.55095444767</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3157,10 +3157,14 @@
         <v>-274908.2973455524</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="J84" t="n">
+        <v>32.9</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3190,11 +3194,19 @@
         <v>-274908.2973455524</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>33</v>
+      </c>
+      <c r="J85" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3238,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,10 +3274,14 @@
         <v>-274282.6896455524</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>33</v>
+      </c>
+      <c r="J87" t="n">
+        <v>33</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3292,8 +3314,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>33</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3353,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>33</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3454,7 +3488,7 @@
         <v>-128287.9346455524</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3521,7 @@
         <v>-148810.4876455524</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3554,7 @@
         <v>-148800.4876455524</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3587,7 @@
         <v>-193128.8581455524</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3620,7 @@
         <v>-197367.9376455524</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3784,7 +3818,7 @@
         <v>-210753.3540931714</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3851,7 @@
         <v>-224602.4340931714</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3917,7 @@
         <v>-260614.4440931714</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3983,7 @@
         <v>-256747.4740931714</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4016,7 @@
         <v>-329417.9340931714</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4081,7 +4115,7 @@
         <v>-329513.8500931715</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4148,7 @@
         <v>-342662.4200931715</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4214,7 @@
         <v>-348745.0300931715</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4280,7 @@
         <v>-348705.0300931715</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4313,7 @@
         <v>-355790.4700931715</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4346,7 @@
         <v>-355778.4700931715</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5038,10 +5072,14 @@
         <v>-950400.2263931716</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="J141" t="n">
+        <v>32.9</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
@@ -5071,11 +5109,19 @@
         <v>-950390.2263931716</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="J142" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5153,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,15 +5189,17 @@
         <v>-958678.0773931716</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>32.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
+        <v>32.9</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5178,11 +5232,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -5217,7 +5271,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5256,7 +5310,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5295,7 +5349,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5334,7 +5388,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5369,11 +5423,13 @@
         <v>-1204540.566393171</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>33.1</v>
+      </c>
       <c r="J150" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5408,11 +5464,13 @@
         <v>-1199627.556193172</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>33</v>
+      </c>
       <c r="J151" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5447,11 +5505,13 @@
         <v>-1204741.192493171</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>33.1</v>
+      </c>
       <c r="J152" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5486,11 +5546,13 @@
         <v>-1204741.192493171</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>33</v>
+      </c>
       <c r="J153" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5525,11 +5587,13 @@
         <v>-1204741.192493171</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>33</v>
+      </c>
       <c r="J154" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5564,11 +5628,13 @@
         <v>-1200652.058593171</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>33</v>
+      </c>
       <c r="J155" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5603,11 +5669,13 @@
         <v>-1200642.058593171</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>33.1</v>
+      </c>
       <c r="J156" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5646,7 +5714,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5681,11 +5749,13 @@
         <v>-1233167.888593171</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>33.1</v>
+      </c>
       <c r="J158" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5720,11 +5790,13 @@
         <v>-1232361.664793171</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>33</v>
+      </c>
       <c r="J159" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5759,11 +5831,13 @@
         <v>-1232361.664793171</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>33.2</v>
+      </c>
       <c r="J160" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>

--- a/BackTest/2019-11-02 BackTest ETZ.xlsx
+++ b/BackTest/2019-11-02 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>302.1148</v>
       </c>
       <c r="G2" t="n">
-        <v>245125.9821641153</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>23003.8841</v>
       </c>
       <c r="G3" t="n">
-        <v>245125.9821641153</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>245135.9821641153</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>300.3003</v>
       </c>
       <c r="G5" t="n">
-        <v>245135.9821641153</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>3689.6997</v>
       </c>
       <c r="G6" t="n">
-        <v>245135.9821641153</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>245145.9821641153</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>137656.7315</v>
       </c>
       <c r="G8" t="n">
-        <v>382802.7136641153</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>606.0671</v>
       </c>
       <c r="G9" t="n">
-        <v>382802.7136641153</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>9142.597</v>
       </c>
       <c r="G10" t="n">
-        <v>382802.7136641153</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>973.3134</v>
       </c>
       <c r="G11" t="n">
-        <v>382802.7136641153</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>382792.7136641153</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>10476.568</v>
       </c>
       <c r="G13" t="n">
-        <v>372316.1456641153</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>300.3003</v>
       </c>
       <c r="G14" t="n">
-        <v>372616.4459641153</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>16093.5821</v>
       </c>
       <c r="G15" t="n">
-        <v>356522.8638641153</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>533.9752</v>
       </c>
       <c r="G16" t="n">
-        <v>355988.8886641153</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>36.1077</v>
       </c>
       <c r="G17" t="n">
-        <v>356024.9963641153</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>94110.74480483384</v>
       </c>
       <c r="G18" t="n">
-        <v>261914.2515592815</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>15703.8453</v>
       </c>
       <c r="G19" t="n">
-        <v>246210.4062592815</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>5894.864995166163</v>
       </c>
       <c r="G20" t="n">
-        <v>252105.2712544477</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>252115.2712544477</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1014.4721</v>
       </c>
       <c r="G22" t="n">
-        <v>252115.2712544477</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>945.2694</v>
       </c>
       <c r="G23" t="n">
-        <v>252115.2712544477</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>252126.2712544477</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1634.2089</v>
       </c>
       <c r="G25" t="n">
-        <v>252126.2712544477</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>4360.1232</v>
       </c>
       <c r="G26" t="n">
-        <v>247766.1480544477</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>9119.7405</v>
       </c>
       <c r="G27" t="n">
-        <v>238646.4075544477</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>122.5774</v>
       </c>
       <c r="G28" t="n">
-        <v>238768.9849544477</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>122.5774</v>
       </c>
       <c r="G29" t="n">
-        <v>238768.9849544477</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>12697.5045</v>
       </c>
       <c r="G30" t="n">
-        <v>251466.4894544477</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>107828.5602</v>
       </c>
       <c r="G31" t="n">
-        <v>143637.9292544477</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>256187.8648</v>
       </c>
       <c r="G32" t="n">
-        <v>143637.9292544477</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>26844.1286</v>
       </c>
       <c r="G33" t="n">
-        <v>143637.9292544477</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>5000</v>
       </c>
       <c r="G34" t="n">
-        <v>148637.9292544477</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1007</v>
       </c>
       <c r="G35" t="n">
-        <v>148637.9292544477</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>3003</v>
       </c>
       <c r="G36" t="n">
-        <v>148637.9292544477</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1304.0606</v>
       </c>
       <c r="G37" t="n">
-        <v>148637.9292544477</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1698.9394</v>
       </c>
       <c r="G38" t="n">
-        <v>148637.9292544477</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>10000</v>
       </c>
       <c r="G39" t="n">
-        <v>148637.9292544477</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,19 @@
         <v>2451.2727</v>
       </c>
       <c r="G40" t="n">
-        <v>148637.9292544477</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="I40" t="n">
+        <v>33</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1617,21 @@
         <v>13831.4558</v>
       </c>
       <c r="G41" t="n">
-        <v>148637.9292544477</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>33</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1653,23 @@
         <v>304.1145</v>
       </c>
       <c r="G42" t="n">
-        <v>148333.8147544477</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="I42" t="n">
+        <v>33</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1691,23 @@
         <v>44181.464</v>
       </c>
       <c r="G43" t="n">
-        <v>104152.3507544477</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>32.9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>33</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1729,23 @@
         <v>22.6139</v>
       </c>
       <c r="G44" t="n">
-        <v>104174.9646544477</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>32.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>33</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1767,23 @@
         <v>281.5006</v>
       </c>
       <c r="G45" t="n">
-        <v>104174.9646544477</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>32.9</v>
+      </c>
+      <c r="I45" t="n">
+        <v>33</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1805,21 @@
         <v>173.8114</v>
       </c>
       <c r="G46" t="n">
-        <v>104348.7760544477</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>33</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1841,21 @@
         <v>4545.4545</v>
       </c>
       <c r="G47" t="n">
-        <v>104348.7760544477</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>33</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1877,23 @@
         <v>5139.7081</v>
       </c>
       <c r="G48" t="n">
-        <v>104348.7760544477</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="I48" t="n">
+        <v>33</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1915,21 @@
         <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>104359.7760544477</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>33</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1951,23 @@
         <v>389</v>
       </c>
       <c r="G50" t="n">
-        <v>104359.7760544477</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>33.1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>33</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1989,23 @@
         <v>44</v>
       </c>
       <c r="G51" t="n">
-        <v>104403.7760544477</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>33.1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>33</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2027,23 @@
         <v>79094.7876</v>
       </c>
       <c r="G52" t="n">
-        <v>104403.7760544477</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>33.4</v>
+      </c>
+      <c r="I52" t="n">
+        <v>33</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2065,21 @@
         <v>24248.2251</v>
       </c>
       <c r="G53" t="n">
-        <v>80155.55095444767</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2101,21 @@
         <v>31909.4242</v>
       </c>
       <c r="G54" t="n">
-        <v>80155.55095444767</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>33</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2137,23 @@
         <v>22927.1383</v>
       </c>
       <c r="G55" t="n">
-        <v>80155.55095444767</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="I55" t="n">
+        <v>33</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2175,21 @@
         <v>11</v>
       </c>
       <c r="G56" t="n">
-        <v>80166.55095444767</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>33</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2211,21 @@
         <v>260.7371</v>
       </c>
       <c r="G57" t="n">
-        <v>79905.81385444767</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>33</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2247,21 @@
         <v>784.2628999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>79905.81385444767</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>33</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2283,21 @@
         <v>30812.3907</v>
       </c>
       <c r="G59" t="n">
-        <v>49093.42315444766</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>33</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2319,21 @@
         <v>33677.5058</v>
       </c>
       <c r="G60" t="n">
-        <v>49093.42315444766</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>33</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2355,21 @@
         <v>20000</v>
       </c>
       <c r="G61" t="n">
-        <v>49093.42315444766</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>33</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2391,21 @@
         <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>49103.42315444766</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>33</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2427,21 @@
         <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>49113.42315444766</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>33</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2463,21 @@
         <v>316.0386</v>
       </c>
       <c r="G64" t="n">
-        <v>48797.38455444766</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>33</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2499,21 @@
         <v>13814.3484</v>
       </c>
       <c r="G65" t="n">
-        <v>48797.38455444766</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>33</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2535,21 @@
         <v>31954.7791</v>
       </c>
       <c r="G66" t="n">
-        <v>48797.38455444766</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>33</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2571,21 @@
         <v>4570.0604</v>
       </c>
       <c r="G67" t="n">
-        <v>48797.38455444766</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>33</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2607,21 @@
         <v>41622.2966</v>
       </c>
       <c r="G68" t="n">
-        <v>7175.087954447663</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>33</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2643,21 @@
         <v>3527.3135</v>
       </c>
       <c r="G69" t="n">
-        <v>10702.40145444766</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>33</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2679,21 @@
         <v>4518.0722</v>
       </c>
       <c r="G70" t="n">
-        <v>15220.47365444766</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>33</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2715,21 @@
         <v>44733</v>
       </c>
       <c r="G71" t="n">
-        <v>-29512.52634555234</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>33</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2751,21 @@
         <v>15874.8751</v>
       </c>
       <c r="G72" t="n">
-        <v>-13637.65124555234</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>33</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2787,21 @@
         <v>180000</v>
       </c>
       <c r="G73" t="n">
-        <v>-193637.6512455523</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>33</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2823,21 @@
         <v>17413.765</v>
       </c>
       <c r="G74" t="n">
-        <v>-176223.8862455523</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>33</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2859,21 @@
         <v>13642.1355</v>
       </c>
       <c r="G75" t="n">
-        <v>-176223.8862455523</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>33</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2895,21 @@
         <v>7918.4084</v>
       </c>
       <c r="G76" t="n">
-        <v>-168305.4778455523</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>33</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2931,21 @@
         <v>16000</v>
       </c>
       <c r="G77" t="n">
-        <v>-184305.4778455523</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>33</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2967,21 @@
         <v>110726.8296</v>
       </c>
       <c r="G78" t="n">
-        <v>-295032.3074455523</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>33</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3003,21 @@
         <v>13893.3636</v>
       </c>
       <c r="G79" t="n">
-        <v>-281138.9438455523</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>33</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3039,21 @@
         <v>151.5151</v>
       </c>
       <c r="G80" t="n">
-        <v>-281138.9438455523</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>33</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3075,21 @@
         <v>31768.2543</v>
       </c>
       <c r="G81" t="n">
-        <v>-281138.9438455523</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>33</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3111,21 @@
         <v>13814.3485</v>
       </c>
       <c r="G82" t="n">
-        <v>-294953.2923455524</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>33</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3147,21 @@
         <v>6100</v>
       </c>
       <c r="G83" t="n">
-        <v>-288853.2923455524</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>33</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,22 +3183,21 @@
         <v>13944.995</v>
       </c>
       <c r="G84" t="n">
-        <v>-274908.2973455524</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3191,26 +3219,21 @@
         <v>55</v>
       </c>
       <c r="G85" t="n">
-        <v>-274908.2973455524</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
         <v>33</v>
       </c>
-      <c r="J85" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3232,24 +3255,21 @@
         <v>36519.16</v>
       </c>
       <c r="G86" t="n">
-        <v>-274908.2973455524</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>33</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3271,22 +3291,21 @@
         <v>625.6077</v>
       </c>
       <c r="G87" t="n">
-        <v>-274282.6896455524</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
         <v>33</v>
       </c>
-      <c r="J87" t="n">
-        <v>33</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3308,24 +3327,21 @@
         <v>41583.7672</v>
       </c>
       <c r="G88" t="n">
-        <v>-232698.9224455524</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>33</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>33</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3347,24 +3363,21 @@
         <v>9249.582399999999</v>
       </c>
       <c r="G89" t="n">
-        <v>-241948.5048455524</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>33</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>33</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3386,18 +3399,21 @@
         <v>60750.4176</v>
       </c>
       <c r="G90" t="n">
-        <v>-241948.5048455524</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>33</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3419,18 +3435,21 @@
         <v>157927.6465</v>
       </c>
       <c r="G91" t="n">
-        <v>-84020.85834555238</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>33</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3452,18 +3471,21 @@
         <v>44278.0763</v>
       </c>
       <c r="G92" t="n">
-        <v>-128298.9346455524</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>33</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3485,18 +3507,21 @@
         <v>11</v>
       </c>
       <c r="G93" t="n">
-        <v>-128287.9346455524</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>33</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3518,18 +3543,21 @@
         <v>20522.553</v>
       </c>
       <c r="G94" t="n">
-        <v>-148810.4876455524</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>33</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3551,18 +3579,21 @@
         <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>-148800.4876455524</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>33</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3584,18 +3615,21 @@
         <v>44328.3705</v>
       </c>
       <c r="G96" t="n">
-        <v>-193128.8581455524</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>33</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3617,18 +3651,21 @@
         <v>4239.0795</v>
       </c>
       <c r="G97" t="n">
-        <v>-197367.9376455524</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>33</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3650,18 +3687,21 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>-197357.9376455524</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>33</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3683,18 +3723,21 @@
         <v>51564.4823</v>
       </c>
       <c r="G99" t="n">
-        <v>-197357.9376455524</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>33</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3716,18 +3759,21 @@
         <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>-197346.9376455524</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>33</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3749,18 +3795,21 @@
         <v>38355.7182</v>
       </c>
       <c r="G101" t="n">
-        <v>-235702.6558455524</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>33</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3782,18 +3831,21 @@
         <v>30938.34655238095</v>
       </c>
       <c r="G102" t="n">
-        <v>-204764.3092931714</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>33</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3815,18 +3867,21 @@
         <v>5989.0448</v>
       </c>
       <c r="G103" t="n">
-        <v>-210753.3540931714</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>33</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3848,18 +3903,21 @@
         <v>13849.08</v>
       </c>
       <c r="G104" t="n">
-        <v>-224602.4340931714</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>33</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3881,18 +3939,21 @@
         <v>11</v>
       </c>
       <c r="G105" t="n">
-        <v>-224591.4340931714</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>33</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3914,18 +3975,21 @@
         <v>36023.01</v>
       </c>
       <c r="G106" t="n">
-        <v>-260614.4440931714</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>33</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3947,18 +4011,21 @@
         <v>3856.97</v>
       </c>
       <c r="G107" t="n">
-        <v>-256757.4740931714</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>33</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3980,18 +4047,21 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>-256747.4740931714</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>33</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4013,18 +4083,21 @@
         <v>72670.46000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>-329417.9340931714</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>33</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4046,18 +4119,21 @@
         <v>94.084</v>
       </c>
       <c r="G110" t="n">
-        <v>-329323.8500931715</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>33</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4079,18 +4155,21 @@
         <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>-329313.8500931715</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>33</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4112,18 +4191,21 @@
         <v>200</v>
       </c>
       <c r="G112" t="n">
-        <v>-329513.8500931715</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>33</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4145,18 +4227,21 @@
         <v>13148.57</v>
       </c>
       <c r="G113" t="n">
-        <v>-342662.4200931715</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>33</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4178,18 +4263,21 @@
         <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>-342652.4200931715</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>33</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4211,18 +4299,21 @@
         <v>6092.61</v>
       </c>
       <c r="G115" t="n">
-        <v>-348745.0300931715</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>33</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4244,18 +4335,21 @@
         <v>6861.77</v>
       </c>
       <c r="G116" t="n">
-        <v>-348745.0300931715</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>33</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4277,18 +4371,21 @@
         <v>40</v>
       </c>
       <c r="G117" t="n">
-        <v>-348705.0300931715</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>33</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4310,18 +4407,21 @@
         <v>7085.44</v>
       </c>
       <c r="G118" t="n">
-        <v>-355790.4700931715</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>33</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4343,18 +4443,21 @@
         <v>12</v>
       </c>
       <c r="G119" t="n">
-        <v>-355778.4700931715</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>33</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4376,18 +4479,21 @@
         <v>60705.383</v>
       </c>
       <c r="G120" t="n">
-        <v>-416483.8530931715</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>33</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4409,18 +4515,21 @@
         <v>11</v>
       </c>
       <c r="G121" t="n">
-        <v>-416472.8530931715</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>33</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4442,18 +4551,21 @@
         <v>132276.61</v>
       </c>
       <c r="G122" t="n">
-        <v>-548749.4630931715</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>33</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4475,18 +4587,21 @@
         <v>18783.0755</v>
       </c>
       <c r="G123" t="n">
-        <v>-548749.4630931715</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>33</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4508,18 +4623,21 @@
         <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>-548739.4630931715</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>33</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4541,18 +4659,21 @@
         <v>138573.1825</v>
       </c>
       <c r="G125" t="n">
-        <v>-687312.6455931715</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>33</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4574,18 +4695,21 @@
         <v>11</v>
       </c>
       <c r="G126" t="n">
-        <v>-687301.6455931715</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>33</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4607,18 +4731,21 @@
         <v>30089.0034</v>
       </c>
       <c r="G127" t="n">
-        <v>-717390.6489931715</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>33</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4640,18 +4767,21 @@
         <v>33054.19</v>
       </c>
       <c r="G128" t="n">
-        <v>-717390.6489931715</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>33</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4673,18 +4803,21 @@
         <v>102130.7217</v>
       </c>
       <c r="G129" t="n">
-        <v>-717390.6489931715</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>33</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4706,18 +4839,21 @@
         <v>84597.1072</v>
       </c>
       <c r="G130" t="n">
-        <v>-717390.6489931715</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>33</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4739,18 +4875,21 @@
         <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>-717380.6489931715</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>33</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4772,18 +4911,21 @@
         <v>210.2102102102102</v>
       </c>
       <c r="G132" t="n">
-        <v>-717380.6489931715</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>33</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4805,18 +4947,21 @@
         <v>154379.5808</v>
       </c>
       <c r="G133" t="n">
-        <v>-563001.0681931715</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>33</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4838,18 +4983,21 @@
         <v>117850.5465</v>
       </c>
       <c r="G134" t="n">
-        <v>-680851.6146931716</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>33</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4871,18 +5019,21 @@
         <v>51372.6667</v>
       </c>
       <c r="G135" t="n">
-        <v>-680851.6146931716</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>33</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4904,18 +5055,21 @@
         <v>44370.4033</v>
       </c>
       <c r="G136" t="n">
-        <v>-725222.0179931716</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>33</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4937,18 +5091,21 @@
         <v>175044.0139</v>
       </c>
       <c r="G137" t="n">
-        <v>-900266.0318931716</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>33</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4970,18 +5127,21 @@
         <v>45221.2663</v>
       </c>
       <c r="G138" t="n">
-        <v>-900266.0318931716</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>33</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5003,18 +5163,21 @@
         <v>47007.8837</v>
       </c>
       <c r="G139" t="n">
-        <v>-900266.0318931716</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>33</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5036,18 +5199,21 @@
         <v>50134.1945</v>
       </c>
       <c r="G140" t="n">
-        <v>-950400.2263931716</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>33</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5069,22 +5235,21 @@
         <v>10573.0218</v>
       </c>
       <c r="G141" t="n">
-        <v>-950400.2263931716</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="J141" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5106,26 +5271,21 @@
         <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>-950390.2263931716</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="J142" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5147,24 +5307,21 @@
         <v>8297.851000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>-958688.0773931716</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>33</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5186,24 +5343,21 @@
         <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>-958678.0773931716</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>33</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5225,24 +5379,21 @@
         <v>165287.0217</v>
       </c>
       <c r="G145" t="n">
-        <v>-1123965.099093172</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>33</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5264,24 +5415,21 @@
         <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>-1123955.099093172</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>33</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5303,24 +5451,21 @@
         <v>41595.0548</v>
       </c>
       <c r="G147" t="n">
-        <v>-1165550.153893172</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>33</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5342,24 +5487,21 @@
         <v>406.2238</v>
       </c>
       <c r="G148" t="n">
-        <v>-1165143.930093172</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>33</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5381,24 +5523,21 @@
         <v>3.7762</v>
       </c>
       <c r="G149" t="n">
-        <v>-1165143.930093172</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>33</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5420,26 +5559,21 @@
         <v>39396.6363</v>
       </c>
       <c r="G150" t="n">
-        <v>-1204540.566393171</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="J150" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5461,26 +5595,21 @@
         <v>4913.0102</v>
       </c>
       <c r="G151" t="n">
-        <v>-1199627.556193172</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
         <v>33</v>
       </c>
-      <c r="J151" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5502,26 +5631,21 @@
         <v>5113.6363</v>
       </c>
       <c r="G152" t="n">
-        <v>-1204741.192493171</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="J152" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5543,26 +5667,21 @@
         <v>12935.7272</v>
       </c>
       <c r="G153" t="n">
-        <v>-1204741.192493171</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
         <v>33</v>
       </c>
-      <c r="J153" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5584,26 +5703,21 @@
         <v>5113.6363</v>
       </c>
       <c r="G154" t="n">
-        <v>-1204741.192493171</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
         <v>33</v>
       </c>
-      <c r="J154" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5625,26 +5739,21 @@
         <v>4089.1339</v>
       </c>
       <c r="G155" t="n">
-        <v>-1200652.058593171</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
         <v>33</v>
       </c>
-      <c r="J155" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5666,26 +5775,21 @@
         <v>10</v>
       </c>
       <c r="G156" t="n">
-        <v>-1200642.058593171</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="J156" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5707,24 +5811,21 @@
         <v>10367.44</v>
       </c>
       <c r="G157" t="n">
-        <v>-1211009.498593171</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>33</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5746,26 +5847,21 @@
         <v>22158.39</v>
       </c>
       <c r="G158" t="n">
-        <v>-1233167.888593171</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="J158" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5787,26 +5883,21 @@
         <v>806.2238</v>
       </c>
       <c r="G159" t="n">
-        <v>-1232361.664793171</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
         <v>33</v>
       </c>
-      <c r="J159" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5828,26 +5919,21 @@
         <v>110000</v>
       </c>
       <c r="G160" t="n">
-        <v>-1232361.664793171</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="J160" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
